--- a/data/word_list_8.xlsx
+++ b/data/word_list_8.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K345"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,52 +365,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>aoa_german_comb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>word_freq</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_b_m</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_s_m</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_l_m</t>
+          <t>aoa_mor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_comb</t>
+          <t>clt</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>clt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>english</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_mor</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_rating_english</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>select</t>
         </is>
       </c>
     </row>
@@ -423,10 +403,7 @@
       <c r="C2">
         <v>8.789999999999999</v>
       </c>
-      <c r="F2">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>idol</t>
         </is>
@@ -441,10 +418,7 @@
       <c r="C3">
         <v>8.789999999999999</v>
       </c>
-      <c r="F3">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>logic</t>
         </is>
@@ -459,10 +433,7 @@
       <c r="C4">
         <v>8.789999999999999</v>
       </c>
-      <c r="F4">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>torpedo</t>
         </is>
@@ -477,10 +448,7 @@
       <c r="C5">
         <v>8.789999999999999</v>
       </c>
-      <c r="F5">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>familiar</t>
         </is>
@@ -495,10 +463,7 @@
       <c r="C6">
         <v>8.800000000000001</v>
       </c>
-      <c r="F6">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>heiress</t>
         </is>
@@ -513,10 +478,7 @@
       <c r="C7">
         <v>8.800000000000001</v>
       </c>
-      <c r="F7">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>deadline</t>
         </is>
@@ -531,10 +493,7 @@
       <c r="C8">
         <v>8.800000000000001</v>
       </c>
-      <c r="F8">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>reserve</t>
         </is>
@@ -549,10 +508,7 @@
       <c r="C9">
         <v>8.800000000000001</v>
       </c>
-      <c r="F9">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>risky</t>
         </is>
@@ -567,10 +523,7 @@
       <c r="C10">
         <v>8.800000000000001</v>
       </c>
-      <c r="F10">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>rival</t>
         </is>
@@ -585,10 +538,7 @@
       <c r="C11">
         <v>8.800000000000001</v>
       </c>
-      <c r="F11">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>independence</t>
         </is>
@@ -603,10 +553,7 @@
       <c r="C12">
         <v>8.800000000000001</v>
       </c>
-      <c r="F12">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>appreciate</t>
         </is>
@@ -621,10 +568,7 @@
       <c r="C13">
         <v>8.81</v>
       </c>
-      <c r="F13">
-        <v>8.81</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>without conflict</t>
         </is>
@@ -639,10 +583,7 @@
       <c r="C14">
         <v>8.81</v>
       </c>
-      <c r="F14">
-        <v>8.81</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>upright</t>
         </is>
@@ -657,10 +598,7 @@
       <c r="C15">
         <v>8.81</v>
       </c>
-      <c r="F15">
-        <v>8.81</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>clan</t>
         </is>
@@ -675,10 +613,7 @@
       <c r="C16">
         <v>8.81</v>
       </c>
-      <c r="F16">
-        <v>8.81</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>camouflage</t>
         </is>
@@ -693,10 +628,7 @@
       <c r="C17">
         <v>8.82</v>
       </c>
-      <c r="F17">
-        <v>8.82</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>blindly</t>
         </is>
@@ -711,10 +643,7 @@
       <c r="C18">
         <v>8.82</v>
       </c>
-      <c r="F18">
-        <v>8.82</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>magnificent</t>
         </is>
@@ -726,19 +655,13 @@
           <t>kajak</t>
         </is>
       </c>
-      <c r="B19">
-        <v>0.11</v>
-      </c>
       <c r="C19">
         <v>8.82</v>
       </c>
       <c r="D19">
-        <v>5.35</v>
-      </c>
-      <c r="F19">
-        <v>8.82</v>
-      </c>
-      <c r="H19" t="inlineStr">
+        <v>0.11</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>kayak</t>
         </is>
@@ -753,10 +676,7 @@
       <c r="C20">
         <v>8.82</v>
       </c>
-      <c r="F20">
-        <v>8.82</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
@@ -771,10 +691,7 @@
       <c r="C21">
         <v>8.82</v>
       </c>
-      <c r="F21">
-        <v>8.82</v>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>temperament</t>
         </is>
@@ -789,10 +706,7 @@
       <c r="C22">
         <v>8.82</v>
       </c>
-      <c r="F22">
-        <v>8.82</v>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>tragic</t>
         </is>
@@ -807,10 +721,7 @@
       <c r="C23">
         <v>8.82</v>
       </c>
-      <c r="F23">
-        <v>8.82</v>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>faithfulness</t>
         </is>
@@ -825,10 +736,7 @@
       <c r="C24">
         <v>8.83</v>
       </c>
-      <c r="F24">
-        <v>8.83</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>countdown</t>
         </is>
@@ -843,10 +751,7 @@
       <c r="C25">
         <v>8.83</v>
       </c>
-      <c r="F25">
-        <v>8.83</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>ambition</t>
         </is>
@@ -861,10 +766,7 @@
       <c r="C26">
         <v>8.83</v>
       </c>
-      <c r="F26">
-        <v>8.83</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>wanted</t>
         </is>
@@ -879,10 +781,7 @@
       <c r="C27">
         <v>8.83</v>
       </c>
-      <c r="F27">
-        <v>8.83</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>avarice</t>
         </is>
@@ -897,10 +796,7 @@
       <c r="C28">
         <v>8.83</v>
       </c>
-      <c r="F28">
-        <v>8.83</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>piranha</t>
         </is>
@@ -915,10 +811,7 @@
       <c r="C29">
         <v>8.83</v>
       </c>
-      <c r="F29">
-        <v>8.83</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>turbulent</t>
         </is>
@@ -933,10 +826,7 @@
       <c r="C30">
         <v>8.84</v>
       </c>
-      <c r="F30">
-        <v>8.84</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>ballast</t>
         </is>
@@ -951,10 +841,7 @@
       <c r="C31">
         <v>8.84</v>
       </c>
-      <c r="F31">
-        <v>8.84</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>tragedy</t>
         </is>
@@ -969,10 +856,7 @@
       <c r="C32">
         <v>8.84</v>
       </c>
-      <c r="F32">
-        <v>8.84</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>façade</t>
         </is>
@@ -987,10 +871,7 @@
       <c r="C33">
         <v>8.84</v>
       </c>
-      <c r="F33">
-        <v>8.84</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>lost property office</t>
         </is>
@@ -1005,10 +886,7 @@
       <c r="C34">
         <v>8.84</v>
       </c>
-      <c r="F34">
-        <v>8.84</v>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>crook</t>
         </is>
@@ -1023,10 +901,7 @@
       <c r="C35">
         <v>8.84</v>
       </c>
-      <c r="F35">
-        <v>8.84</v>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -1041,10 +916,7 @@
       <c r="C36">
         <v>8.84</v>
       </c>
-      <c r="F36">
-        <v>8.84</v>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>state</t>
         </is>
@@ -1059,10 +931,7 @@
       <c r="C37">
         <v>8.85</v>
       </c>
-      <c r="F37">
-        <v>8.85</v>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>flawless</t>
         </is>
@@ -1077,10 +946,7 @@
       <c r="C38">
         <v>8.859999999999999</v>
       </c>
-      <c r="F38">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>cutting</t>
         </is>
@@ -1095,10 +961,7 @@
       <c r="C39">
         <v>8.859999999999999</v>
       </c>
-      <c r="F39">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>wretched</t>
         </is>
@@ -1113,10 +976,7 @@
       <c r="C40">
         <v>8.859999999999999</v>
       </c>
-      <c r="F40">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>idyllic</t>
         </is>
@@ -1131,10 +991,7 @@
       <c r="C41">
         <v>8.859999999999999</v>
       </c>
-      <c r="F41">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>meeting</t>
         </is>
@@ -1149,10 +1006,7 @@
       <c r="C42">
         <v>8.869999999999999</v>
       </c>
-      <c r="F42">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>comfort</t>
         </is>
@@ -1167,10 +1021,7 @@
       <c r="C43">
         <v>8.869999999999999</v>
       </c>
-      <c r="F43">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>wave</t>
         </is>
@@ -1185,10 +1036,7 @@
       <c r="C44">
         <v>8.880000000000001</v>
       </c>
-      <c r="F44">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>composure</t>
         </is>
@@ -1203,10 +1051,7 @@
       <c r="C45">
         <v>8.880000000000001</v>
       </c>
-      <c r="F45">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>give notice</t>
         </is>
@@ -1221,10 +1066,7 @@
       <c r="C46">
         <v>8.880000000000001</v>
       </c>
-      <c r="F46">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>pizzeria</t>
         </is>
@@ -1239,10 +1081,7 @@
       <c r="C47">
         <v>8.890000000000001</v>
       </c>
-      <c r="F47">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>support</t>
         </is>
@@ -1257,10 +1096,7 @@
       <c r="C48">
         <v>8.890000000000001</v>
       </c>
-      <c r="F48">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>horoscope</t>
         </is>
@@ -1272,19 +1108,13 @@
           <t>mango</t>
         </is>
       </c>
-      <c r="B49">
-        <v>0.2</v>
-      </c>
       <c r="C49">
         <v>8.890000000000001</v>
       </c>
       <c r="D49">
-        <v>5.95</v>
-      </c>
-      <c r="F49">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="H49" t="inlineStr">
+        <v>0.2</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>mango</t>
         </is>
@@ -1299,10 +1129,7 @@
       <c r="C50">
         <v>8.890000000000001</v>
       </c>
-      <c r="F50">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>milk bar</t>
         </is>
@@ -1317,10 +1144,7 @@
       <c r="C51">
         <v>8.91</v>
       </c>
-      <c r="F51">
-        <v>8.91</v>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>business</t>
         </is>
@@ -1335,10 +1159,7 @@
       <c r="C52">
         <v>8.92</v>
       </c>
-      <c r="F52">
-        <v>8.92</v>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>stretcher</t>
         </is>
@@ -1353,10 +1174,7 @@
       <c r="C53">
         <v>8.92</v>
       </c>
-      <c r="F53">
-        <v>8.92</v>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>realisation</t>
         </is>
@@ -1371,10 +1189,7 @@
       <c r="C54">
         <v>8.92</v>
       </c>
-      <c r="F54">
-        <v>8.92</v>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>in view of</t>
         </is>
@@ -1389,10 +1204,7 @@
       <c r="C55">
         <v>8.92</v>
       </c>
-      <c r="F55">
-        <v>8.92</v>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
@@ -1407,10 +1219,7 @@
       <c r="C56">
         <v>8.92</v>
       </c>
-      <c r="F56">
-        <v>8.92</v>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>warm-hearted</t>
         </is>
@@ -1425,10 +1234,7 @@
       <c r="C57">
         <v>8.93</v>
       </c>
-      <c r="F57">
-        <v>8.93</v>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>freight</t>
         </is>
@@ -1443,10 +1249,7 @@
       <c r="C58">
         <v>8.93</v>
       </c>
-      <c r="F58">
-        <v>8.93</v>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>desolate</t>
         </is>
@@ -1461,10 +1264,7 @@
       <c r="C59">
         <v>8.93</v>
       </c>
-      <c r="F59">
-        <v>8.93</v>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>censorship</t>
         </is>
@@ -1479,10 +1279,7 @@
       <c r="C60">
         <v>8.94</v>
       </c>
-      <c r="F60">
-        <v>8.94</v>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>liven up</t>
         </is>
@@ -1497,10 +1294,7 @@
       <c r="C61">
         <v>8.94</v>
       </c>
-      <c r="F61">
-        <v>8.94</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>foundation</t>
         </is>
@@ -1515,10 +1309,7 @@
       <c r="C62">
         <v>8.94</v>
       </c>
-      <c r="F62">
-        <v>8.94</v>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>critique</t>
         </is>
@@ -1533,10 +1324,7 @@
       <c r="C63">
         <v>8.94</v>
       </c>
-      <c r="F63">
-        <v>8.94</v>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>poetry</t>
         </is>
@@ -1551,10 +1339,7 @@
       <c r="C64">
         <v>8.94</v>
       </c>
-      <c r="F64">
-        <v>8.94</v>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>indefatigable</t>
         </is>
@@ -1569,10 +1354,7 @@
       <c r="C65">
         <v>8.94</v>
       </c>
-      <c r="F65">
-        <v>8.94</v>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>ruby</t>
         </is>
@@ -1587,10 +1369,7 @@
       <c r="C66">
         <v>8.94</v>
       </c>
-      <c r="F66">
-        <v>8.94</v>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>satellite</t>
         </is>
@@ -1605,10 +1384,7 @@
       <c r="C67">
         <v>8.94</v>
       </c>
-      <c r="F67">
-        <v>8.94</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>in top form</t>
         </is>
@@ -1623,10 +1399,7 @@
       <c r="C68">
         <v>8.94</v>
       </c>
-      <c r="F68">
-        <v>8.94</v>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>shift</t>
         </is>
@@ -1641,10 +1414,7 @@
       <c r="C69">
         <v>8.949999999999999</v>
       </c>
-      <c r="F69">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>candidate</t>
         </is>
@@ -1659,10 +1429,7 @@
       <c r="C70">
         <v>8.949999999999999</v>
       </c>
-      <c r="F70">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>sideburns</t>
         </is>
@@ -1677,10 +1444,7 @@
       <c r="C71">
         <v>8.949999999999999</v>
       </c>
-      <c r="F71">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>blemish</t>
         </is>
@@ -1695,10 +1459,7 @@
       <c r="C72">
         <v>8.949999999999999</v>
       </c>
-      <c r="F72">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>safe-keeping</t>
         </is>
@@ -1713,10 +1474,7 @@
       <c r="C73">
         <v>8.949999999999999</v>
       </c>
-      <c r="F73">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>dreary</t>
         </is>
@@ -1731,10 +1489,7 @@
       <c r="C74">
         <v>8.960000000000001</v>
       </c>
-      <c r="F74">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>portrait</t>
         </is>
@@ -1749,10 +1504,7 @@
       <c r="C75">
         <v>8.960000000000001</v>
       </c>
-      <c r="F75">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>farmer</t>
         </is>
@@ -1767,10 +1519,7 @@
       <c r="C76">
         <v>8.960000000000001</v>
       </c>
-      <c r="F76">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>foreign body</t>
         </is>
@@ -1785,10 +1534,7 @@
       <c r="C77">
         <v>8.960000000000001</v>
       </c>
-      <c r="F77">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>knowledge</t>
         </is>
@@ -1803,10 +1549,7 @@
       <c r="C78">
         <v>8.960000000000001</v>
       </c>
-      <c r="F78">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>apprenticeship</t>
         </is>
@@ -1821,10 +1564,7 @@
       <c r="C79">
         <v>8.960000000000001</v>
       </c>
-      <c r="F79">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>personnel</t>
         </is>
@@ -1839,10 +1579,7 @@
       <c r="C80">
         <v>8.960000000000001</v>
       </c>
-      <c r="F80">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>fame</t>
         </is>
@@ -1857,10 +1594,7 @@
       <c r="C81">
         <v>9</v>
       </c>
-      <c r="F81">
-        <v>9</v>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>acknowledge</t>
         </is>
@@ -1875,10 +1609,7 @@
       <c r="C82">
         <v>9</v>
       </c>
-      <c r="F82">
-        <v>9</v>
-      </c>
-      <c r="H82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>prerequisite</t>
         </is>
@@ -1893,10 +1624,7 @@
       <c r="C83">
         <v>9</v>
       </c>
-      <c r="F83">
-        <v>9</v>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>need</t>
         </is>
@@ -1911,10 +1639,7 @@
       <c r="C84">
         <v>9</v>
       </c>
-      <c r="F84">
-        <v>9</v>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>commemorate</t>
         </is>
@@ -1929,10 +1654,7 @@
       <c r="C85">
         <v>9</v>
       </c>
-      <c r="F85">
-        <v>9</v>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>coma</t>
         </is>
@@ -1947,10 +1669,7 @@
       <c r="C86">
         <v>9</v>
       </c>
-      <c r="F86">
-        <v>9</v>
-      </c>
-      <c r="H86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>tenant</t>
         </is>
@@ -1965,10 +1684,7 @@
       <c r="C87">
         <v>9</v>
       </c>
-      <c r="F87">
-        <v>9</v>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>motive</t>
         </is>
@@ -1983,10 +1699,7 @@
       <c r="C88">
         <v>9</v>
       </c>
-      <c r="F88">
-        <v>9</v>
-      </c>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>tendency</t>
         </is>
@@ -2001,10 +1714,7 @@
       <c r="C89">
         <v>9</v>
       </c>
-      <c r="F89">
-        <v>9</v>
-      </c>
-      <c r="H89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>official</t>
         </is>
@@ -2019,10 +1729,7 @@
       <c r="C90">
         <v>9</v>
       </c>
-      <c r="F90">
-        <v>9</v>
-      </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>boast</t>
         </is>
@@ -2037,10 +1744,7 @@
       <c r="C91">
         <v>9</v>
       </c>
-      <c r="F91">
-        <v>9</v>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>purity</t>
         </is>
@@ -2055,10 +1759,7 @@
       <c r="C92">
         <v>9</v>
       </c>
-      <c r="F92">
-        <v>9</v>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>chivalry</t>
         </is>
@@ -2073,10 +1774,7 @@
       <c r="C93">
         <v>9</v>
       </c>
-      <c r="F93">
-        <v>9</v>
-      </c>
-      <c r="H93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>romance</t>
         </is>
@@ -2091,10 +1789,7 @@
       <c r="C94">
         <v>9</v>
       </c>
-      <c r="F94">
-        <v>9</v>
-      </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>mediate</t>
         </is>
@@ -2109,10 +1804,7 @@
       <c r="C95">
         <v>9</v>
       </c>
-      <c r="F95">
-        <v>9</v>
-      </c>
-      <c r="H95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>sprint</t>
         </is>
@@ -2127,10 +1819,7 @@
       <c r="C96">
         <v>9</v>
       </c>
-      <c r="F96">
-        <v>9</v>
-      </c>
-      <c r="H96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>system</t>
         </is>
@@ -2145,10 +1834,7 @@
       <c r="C97">
         <v>9</v>
       </c>
-      <c r="F97">
-        <v>9</v>
-      </c>
-      <c r="H97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>tumult</t>
         </is>
@@ -2163,10 +1849,7 @@
       <c r="C98">
         <v>9</v>
       </c>
-      <c r="F98">
-        <v>9</v>
-      </c>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>displeasure</t>
         </is>
@@ -2181,10 +1864,7 @@
       <c r="C99">
         <v>9</v>
       </c>
-      <c r="F99">
-        <v>9</v>
-      </c>
-      <c r="H99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>consumption</t>
         </is>
@@ -2199,10 +1879,7 @@
       <c r="C100">
         <v>9.039999999999999</v>
       </c>
-      <c r="F100">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="H100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>demand</t>
         </is>
@@ -2217,10 +1894,7 @@
       <c r="C101">
         <v>9.039999999999999</v>
       </c>
-      <c r="F101">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>pension</t>
         </is>
@@ -2235,10 +1909,7 @@
       <c r="C102">
         <v>9.039999999999999</v>
       </c>
-      <c r="F102">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="H102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>espionage</t>
         </is>
@@ -2253,10 +1924,7 @@
       <c r="C103">
         <v>9.050000000000001</v>
       </c>
-      <c r="F103">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>public official</t>
         </is>
@@ -2271,10 +1939,7 @@
       <c r="C104">
         <v>9.050000000000001</v>
       </c>
-      <c r="F104">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="H104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>morale</t>
         </is>
@@ -2289,10 +1954,7 @@
       <c r="C105">
         <v>9.06</v>
       </c>
-      <c r="F105">
-        <v>9.06</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>wage</t>
         </is>
@@ -2307,10 +1969,7 @@
       <c r="C106">
         <v>9.06</v>
       </c>
-      <c r="F106">
-        <v>9.06</v>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>matter-of-fact</t>
         </is>
@@ -2325,10 +1984,7 @@
       <c r="C107">
         <v>9.07</v>
       </c>
-      <c r="F107">
-        <v>9.07</v>
-      </c>
-      <c r="H107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>attractive</t>
         </is>
@@ -2343,10 +1999,7 @@
       <c r="C108">
         <v>9.07</v>
       </c>
-      <c r="F108">
-        <v>9.07</v>
-      </c>
-      <c r="H108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
@@ -2361,10 +2014,7 @@
       <c r="C109">
         <v>9.07</v>
       </c>
-      <c r="F109">
-        <v>9.07</v>
-      </c>
-      <c r="H109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
@@ -2379,10 +2029,7 @@
       <c r="C110">
         <v>9.08</v>
       </c>
-      <c r="F110">
-        <v>9.08</v>
-      </c>
-      <c r="H110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>training</t>
         </is>
@@ -2397,10 +2044,7 @@
       <c r="C111">
         <v>9.08</v>
       </c>
-      <c r="F111">
-        <v>9.08</v>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>guide</t>
         </is>
@@ -2415,10 +2059,7 @@
       <c r="C112">
         <v>9.09</v>
       </c>
-      <c r="F112">
-        <v>9.09</v>
-      </c>
-      <c r="H112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>magma</t>
         </is>
@@ -2433,10 +2074,7 @@
       <c r="C113">
         <v>9.09</v>
       </c>
-      <c r="F113">
-        <v>9.09</v>
-      </c>
-      <c r="H113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>strike</t>
         </is>
@@ -2451,10 +2089,7 @@
       <c r="C114">
         <v>9.109999999999999</v>
       </c>
-      <c r="F114">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>croissant</t>
         </is>
@@ -2469,10 +2104,7 @@
       <c r="C115">
         <v>9.109999999999999</v>
       </c>
-      <c r="F115">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="H115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>guaranteed</t>
         </is>
@@ -2487,10 +2119,7 @@
       <c r="C116">
         <v>9.109999999999999</v>
       </c>
-      <c r="F116">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>mysteriously</t>
         </is>
@@ -2505,10 +2134,7 @@
       <c r="C117">
         <v>9.109999999999999</v>
       </c>
-      <c r="F117">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>scene</t>
         </is>
@@ -2523,10 +2149,7 @@
       <c r="C118">
         <v>9.109999999999999</v>
       </c>
-      <c r="F118">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>supply</t>
         </is>
@@ -2541,10 +2164,7 @@
       <c r="C119">
         <v>9.119999999999999</v>
       </c>
-      <c r="F119">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="H119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>conserve</t>
         </is>
@@ -2559,10 +2179,7 @@
       <c r="C120">
         <v>9.119999999999999</v>
       </c>
-      <c r="F120">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>identical</t>
         </is>
@@ -2577,10 +2194,7 @@
       <c r="C121">
         <v>9.119999999999999</v>
       </c>
-      <c r="F121">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="H121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>job</t>
         </is>
@@ -2595,10 +2209,7 @@
       <c r="C122">
         <v>9.119999999999999</v>
       </c>
-      <c r="F122">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>plural</t>
         </is>
@@ -2613,10 +2224,7 @@
       <c r="C123">
         <v>9.130000000000001</v>
       </c>
-      <c r="F123">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="H123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>prosecution</t>
         </is>
@@ -2631,10 +2239,7 @@
       <c r="C124">
         <v>9.130000000000001</v>
       </c>
-      <c r="F124">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>research</t>
         </is>
@@ -2649,10 +2254,7 @@
       <c r="C125">
         <v>9.130000000000001</v>
       </c>
-      <c r="F125">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="H125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>profound</t>
         </is>
@@ -2667,10 +2269,7 @@
       <c r="C126">
         <v>9.140000000000001</v>
       </c>
-      <c r="F126">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>frisk</t>
         </is>
@@ -2685,10 +2284,7 @@
       <c r="C127">
         <v>9.140000000000001</v>
       </c>
-      <c r="F127">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="H127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>trade</t>
         </is>
@@ -2703,10 +2299,7 @@
       <c r="C128">
         <v>9.140000000000001</v>
       </c>
-      <c r="F128">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="H128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>jukebox</t>
         </is>
@@ -2721,10 +2314,7 @@
       <c r="C129">
         <v>9.140000000000001</v>
       </c>
-      <c r="F129">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="H129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>creation</t>
         </is>
@@ -2739,10 +2329,7 @@
       <c r="C130">
         <v>9.140000000000001</v>
       </c>
-      <c r="F130">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="H130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>tango</t>
         </is>
@@ -2757,10 +2344,7 @@
       <c r="C131">
         <v>9.140000000000001</v>
       </c>
-      <c r="F131">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="H131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
@@ -2775,10 +2359,7 @@
       <c r="C132">
         <v>9.15</v>
       </c>
-      <c r="F132">
-        <v>9.15</v>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>singular</t>
         </is>
@@ -2793,10 +2374,7 @@
       <c r="C133">
         <v>9.16</v>
       </c>
-      <c r="F133">
-        <v>9.16</v>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>abitur</t>
         </is>
@@ -2811,10 +2389,7 @@
       <c r="C134">
         <v>9.16</v>
       </c>
-      <c r="F134">
-        <v>9.16</v>
-      </c>
-      <c r="H134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>prove</t>
         </is>
@@ -2829,10 +2404,7 @@
       <c r="C135">
         <v>9.17</v>
       </c>
-      <c r="F135">
-        <v>9.17</v>
-      </c>
-      <c r="H135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>aluminium</t>
         </is>
@@ -2847,10 +2419,7 @@
       <c r="C136">
         <v>9.17</v>
       </c>
-      <c r="F136">
-        <v>9.17</v>
-      </c>
-      <c r="H136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>excited</t>
         </is>
@@ -2862,19 +2431,13 @@
           <t>chirurg</t>
         </is>
       </c>
-      <c r="B137">
-        <v>3.93</v>
-      </c>
       <c r="C137">
         <v>9.17</v>
       </c>
       <c r="D137">
-        <v>5.8</v>
-      </c>
-      <c r="F137">
-        <v>9.17</v>
-      </c>
-      <c r="H137" t="inlineStr">
+        <v>3.93</v>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>surgeon</t>
         </is>
@@ -2889,10 +2452,7 @@
       <c r="C138">
         <v>9.17</v>
       </c>
-      <c r="F138">
-        <v>9.17</v>
-      </c>
-      <c r="H138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>grant</t>
         </is>
@@ -2907,10 +2467,7 @@
       <c r="C139">
         <v>9.17</v>
       </c>
-      <c r="F139">
-        <v>9.17</v>
-      </c>
-      <c r="H139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>luxurious</t>
         </is>
@@ -2925,10 +2482,7 @@
       <c r="C140">
         <v>9.17</v>
       </c>
-      <c r="F140">
-        <v>9.17</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>venture</t>
         </is>
@@ -2943,10 +2497,7 @@
       <c r="C141">
         <v>9.17</v>
       </c>
-      <c r="F141">
-        <v>9.17</v>
-      </c>
-      <c r="H141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>dedicate</t>
         </is>
@@ -2961,10 +2512,7 @@
       <c r="C142">
         <v>9.18</v>
       </c>
-      <c r="F142">
-        <v>9.18</v>
-      </c>
-      <c r="H142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>postage</t>
         </is>
@@ -2979,10 +2527,7 @@
       <c r="C143">
         <v>9.18</v>
       </c>
-      <c r="F143">
-        <v>9.18</v>
-      </c>
-      <c r="H143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>verb</t>
         </is>
@@ -2997,10 +2542,7 @@
       <c r="C144">
         <v>9.19</v>
       </c>
-      <c r="F144">
-        <v>9.19</v>
-      </c>
-      <c r="H144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -3015,10 +2557,7 @@
       <c r="C145">
         <v>9.19</v>
       </c>
-      <c r="F145">
-        <v>9.19</v>
-      </c>
-      <c r="H145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>remorse</t>
         </is>
@@ -3033,10 +2572,7 @@
       <c r="C146">
         <v>9.19</v>
       </c>
-      <c r="F146">
-        <v>9.19</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>song</t>
         </is>
@@ -3051,10 +2587,7 @@
       <c r="C147">
         <v>9.19</v>
       </c>
-      <c r="F147">
-        <v>9.19</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>central</t>
         </is>
@@ -3069,10 +2602,7 @@
       <c r="C148">
         <v>9.19</v>
       </c>
-      <c r="F148">
-        <v>9.19</v>
-      </c>
-      <c r="H148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>refuge</t>
         </is>
@@ -3087,10 +2617,7 @@
       <c r="C149">
         <v>9.199999999999999</v>
       </c>
-      <c r="F149">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>chronological</t>
         </is>
@@ -3105,10 +2632,7 @@
       <c r="C150">
         <v>9.199999999999999</v>
       </c>
-      <c r="F150">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>tinker</t>
         </is>
@@ -3123,10 +2647,7 @@
       <c r="C151">
         <v>9.199999999999999</v>
       </c>
-      <c r="F151">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>climate</t>
         </is>
@@ -3141,10 +2662,7 @@
       <c r="C152">
         <v>9.199999999999999</v>
       </c>
-      <c r="F152">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>hurricane</t>
         </is>
@@ -3159,10 +2677,7 @@
       <c r="C153">
         <v>9.210000000000001</v>
       </c>
-      <c r="F153">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="H153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>dock</t>
         </is>
@@ -3174,19 +2689,13 @@
           <t>baseball</t>
         </is>
       </c>
-      <c r="B154">
-        <v>0.18</v>
-      </c>
       <c r="C154">
         <v>9.220000000000001</v>
       </c>
       <c r="D154">
-        <v>6.05</v>
-      </c>
-      <c r="F154">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="H154" t="inlineStr">
+        <v>0.18</v>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>baseball</t>
         </is>
@@ -3201,10 +2710,7 @@
       <c r="C155">
         <v>9.220000000000001</v>
       </c>
-      <c r="F155">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="H155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>phase</t>
         </is>
@@ -3219,10 +2725,7 @@
       <c r="C156">
         <v>9.220000000000001</v>
       </c>
-      <c r="F156">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="H156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>expel</t>
         </is>
@@ -3237,10 +2740,7 @@
       <c r="C157">
         <v>9.23</v>
       </c>
-      <c r="F157">
-        <v>9.23</v>
-      </c>
-      <c r="H157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>idiosyncrasy</t>
         </is>
@@ -3255,10 +2755,7 @@
       <c r="C158">
         <v>9.24</v>
       </c>
-      <c r="F158">
-        <v>9.24</v>
-      </c>
-      <c r="H158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>barrier</t>
         </is>
@@ -3273,10 +2770,7 @@
       <c r="C159">
         <v>9.24</v>
       </c>
-      <c r="F159">
-        <v>9.24</v>
-      </c>
-      <c r="H159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>figurative</t>
         </is>
@@ -3291,10 +2785,7 @@
       <c r="C160">
         <v>9.24</v>
       </c>
-      <c r="F160">
-        <v>9.24</v>
-      </c>
-      <c r="H160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>diesel</t>
         </is>
@@ -3309,10 +2800,7 @@
       <c r="C161">
         <v>9.24</v>
       </c>
-      <c r="F161">
-        <v>9.24</v>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>sculpture</t>
         </is>
@@ -3327,10 +2815,7 @@
       <c r="C162">
         <v>9.24</v>
       </c>
-      <c r="F162">
-        <v>9.24</v>
-      </c>
-      <c r="H162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>decompose</t>
         </is>
@@ -3345,10 +2830,7 @@
       <c r="C163">
         <v>9.25</v>
       </c>
-      <c r="F163">
-        <v>9.25</v>
-      </c>
-      <c r="H163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>dismantling</t>
         </is>
@@ -3363,10 +2845,7 @@
       <c r="C164">
         <v>9.25</v>
       </c>
-      <c r="F164">
-        <v>9.25</v>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>charm</t>
         </is>
@@ -3381,10 +2860,7 @@
       <c r="C165">
         <v>9.27</v>
       </c>
-      <c r="F165">
-        <v>9.27</v>
-      </c>
-      <c r="H165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>comic effect</t>
         </is>
@@ -3396,19 +2872,13 @@
           <t>oboe</t>
         </is>
       </c>
-      <c r="B166">
-        <v>1.02</v>
-      </c>
       <c r="C166">
         <v>9.27</v>
       </c>
       <c r="D166">
-        <v>5.35</v>
-      </c>
-      <c r="F166">
-        <v>9.27</v>
-      </c>
-      <c r="H166" t="inlineStr">
+        <v>1.02</v>
+      </c>
+      <c r="G166" t="inlineStr">
         <is>
           <t>oboe</t>
         </is>
@@ -3423,10 +2893,7 @@
       <c r="C167">
         <v>9.279999999999999</v>
       </c>
-      <c r="F167">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="H167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>standing</t>
         </is>
@@ -3441,10 +2908,7 @@
       <c r="C168">
         <v>9.279999999999999</v>
       </c>
-      <c r="F168">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="H168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>tolerate</t>
         </is>
@@ -3459,10 +2923,7 @@
       <c r="C169">
         <v>9.279999999999999</v>
       </c>
-      <c r="F169">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="H169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>tropics</t>
         </is>
@@ -3477,10 +2938,7 @@
       <c r="C170">
         <v>9.279999999999999</v>
       </c>
-      <c r="F170">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="H170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>survey</t>
         </is>
@@ -3495,10 +2953,7 @@
       <c r="C171">
         <v>9.279999999999999</v>
       </c>
-      <c r="F171">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="H171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>dilapidation</t>
         </is>
@@ -3513,10 +2968,7 @@
       <c r="C172">
         <v>9.279999999999999</v>
       </c>
-      <c r="F172">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="H172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>quail</t>
         </is>
@@ -3531,10 +2983,7 @@
       <c r="C173">
         <v>9.289999999999999</v>
       </c>
-      <c r="F173">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="H173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>activity</t>
         </is>
@@ -3549,10 +2998,7 @@
       <c r="C174">
         <v>9.289999999999999</v>
       </c>
-      <c r="F174">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="H174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>alternative</t>
         </is>
@@ -3567,10 +3013,7 @@
       <c r="C175">
         <v>9.289999999999999</v>
       </c>
-      <c r="F175">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="H175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>arrogant</t>
         </is>
@@ -3585,10 +3028,7 @@
       <c r="C176">
         <v>9.289999999999999</v>
       </c>
-      <c r="F176">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>computer</t>
         </is>
@@ -3603,10 +3043,7 @@
       <c r="C177">
         <v>9.289999999999999</v>
       </c>
-      <c r="F177">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>emergency</t>
         </is>
@@ -3621,10 +3058,7 @@
       <c r="C178">
         <v>9.289999999999999</v>
       </c>
-      <c r="F178">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>magnanimity</t>
         </is>
@@ -3639,10 +3073,7 @@
       <c r="C179">
         <v>9.289999999999999</v>
       </c>
-      <c r="F179">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="H179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>comet</t>
         </is>
@@ -3657,10 +3088,7 @@
       <c r="C180">
         <v>9.289999999999999</v>
       </c>
-      <c r="F180">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>urn</t>
         </is>
@@ -3675,10 +3103,7 @@
       <c r="C181">
         <v>9.300000000000001</v>
       </c>
-      <c r="F181">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="H181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>sing praises</t>
         </is>
@@ -3693,10 +3118,7 @@
       <c r="C182">
         <v>9.300000000000001</v>
       </c>
-      <c r="F182">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="H182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>politics</t>
         </is>
@@ -3711,10 +3133,7 @@
       <c r="C183">
         <v>9.31</v>
       </c>
-      <c r="F183">
-        <v>9.31</v>
-      </c>
-      <c r="H183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>traditional</t>
         </is>
@@ -3729,10 +3148,7 @@
       <c r="C184">
         <v>9.32</v>
       </c>
-      <c r="F184">
-        <v>9.32</v>
-      </c>
-      <c r="H184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>cosmetics</t>
         </is>
@@ -3747,10 +3163,7 @@
       <c r="C185">
         <v>9.32</v>
       </c>
-      <c r="F185">
-        <v>9.32</v>
-      </c>
-      <c r="H185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>waist</t>
         </is>
@@ -3765,10 +3178,7 @@
       <c r="C186">
         <v>9.32</v>
       </c>
-      <c r="F186">
-        <v>9.32</v>
-      </c>
-      <c r="H186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>wear off</t>
         </is>
@@ -3783,10 +3193,7 @@
       <c r="C187">
         <v>9.33</v>
       </c>
-      <c r="F187">
-        <v>9.33</v>
-      </c>
-      <c r="H187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>head doctor</t>
         </is>
@@ -3801,10 +3208,7 @@
       <c r="C188">
         <v>9.33</v>
       </c>
-      <c r="F188">
-        <v>9.33</v>
-      </c>
-      <c r="H188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>fancy-dress costume</t>
         </is>
@@ -3819,10 +3223,7 @@
       <c r="C189">
         <v>9.33</v>
       </c>
-      <c r="F189">
-        <v>9.33</v>
-      </c>
-      <c r="H189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>motto</t>
         </is>
@@ -3837,10 +3238,7 @@
       <c r="C190">
         <v>9.33</v>
       </c>
-      <c r="F190">
-        <v>9.33</v>
-      </c>
-      <c r="H190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>drip</t>
         </is>
@@ -3855,10 +3253,7 @@
       <c r="C191">
         <v>9.35</v>
       </c>
-      <c r="F191">
-        <v>9.35</v>
-      </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>leaving</t>
         </is>
@@ -3873,10 +3268,7 @@
       <c r="C192">
         <v>9.359999999999999</v>
       </c>
-      <c r="F192">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="H192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>snub</t>
         </is>
@@ -3891,10 +3283,7 @@
       <c r="C193">
         <v>9.359999999999999</v>
       </c>
-      <c r="F193">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="H193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>niche</t>
         </is>
@@ -3909,10 +3298,7 @@
       <c r="C194">
         <v>9.359999999999999</v>
       </c>
-      <c r="F194">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="H194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>casual</t>
         </is>
@@ -3927,10 +3313,7 @@
       <c r="C195">
         <v>9.369999999999999</v>
       </c>
-      <c r="F195">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="H195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>likeness</t>
         </is>
@@ -3945,10 +3328,7 @@
       <c r="C196">
         <v>9.369999999999999</v>
       </c>
-      <c r="F196">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="H196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>motivation</t>
         </is>
@@ -3963,10 +3343,7 @@
       <c r="C197">
         <v>9.380000000000001</v>
       </c>
-      <c r="F197">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="H197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>selfishness</t>
         </is>
@@ -3981,10 +3358,7 @@
       <c r="C198">
         <v>9.380000000000001</v>
       </c>
-      <c r="F198">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>redemption</t>
         </is>
@@ -3999,10 +3373,7 @@
       <c r="C199">
         <v>9.380000000000001</v>
       </c>
-      <c r="F199">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>founding</t>
         </is>
@@ -4017,10 +3388,7 @@
       <c r="C200">
         <v>9.380000000000001</v>
       </c>
-      <c r="F200">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>peak form</t>
         </is>
@@ -4035,10 +3403,7 @@
       <c r="C201">
         <v>9.380000000000001</v>
       </c>
-      <c r="F201">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="H201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
@@ -4053,10 +3418,7 @@
       <c r="C202">
         <v>9.380000000000001</v>
       </c>
-      <c r="F202">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="H202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>trot</t>
         </is>
@@ -4071,10 +3433,7 @@
       <c r="C203">
         <v>9.390000000000001</v>
       </c>
-      <c r="F203">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>ampoule</t>
         </is>
@@ -4089,10 +3448,7 @@
       <c r="C204">
         <v>9.390000000000001</v>
       </c>
-      <c r="F204">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>discus</t>
         </is>
@@ -4107,10 +3463,7 @@
       <c r="C205">
         <v>9.390000000000001</v>
       </c>
-      <c r="F205">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>career</t>
         </is>
@@ -4125,10 +3478,7 @@
       <c r="C206">
         <v>9.390000000000001</v>
       </c>
-      <c r="F206">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="H206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>study</t>
         </is>
@@ -4143,10 +3493,7 @@
       <c r="C207">
         <v>9.390000000000001</v>
       </c>
-      <c r="F207">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="H207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>have at disposal</t>
         </is>
@@ -4161,10 +3508,7 @@
       <c r="C208">
         <v>9.4</v>
       </c>
-      <c r="F208">
-        <v>9.4</v>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
@@ -4179,10 +3523,7 @@
       <c r="C209">
         <v>9.4</v>
       </c>
-      <c r="F209">
-        <v>9.4</v>
-      </c>
-      <c r="H209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>coarse</t>
         </is>
@@ -4197,10 +3538,7 @@
       <c r="C210">
         <v>9.4</v>
       </c>
-      <c r="F210">
-        <v>9.4</v>
-      </c>
-      <c r="H210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>instinct</t>
         </is>
@@ -4215,10 +3553,7 @@
       <c r="C211">
         <v>9.4</v>
       </c>
-      <c r="F211">
-        <v>9.4</v>
-      </c>
-      <c r="H211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>pessimist</t>
         </is>
@@ -4233,10 +3568,7 @@
       <c r="C212">
         <v>9.4</v>
       </c>
-      <c r="F212">
-        <v>9.4</v>
-      </c>
-      <c r="H212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>brusque</t>
         </is>
@@ -4251,10 +3583,7 @@
       <c r="C213">
         <v>9.42</v>
       </c>
-      <c r="F213">
-        <v>9.42</v>
-      </c>
-      <c r="H213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>surf</t>
         </is>
@@ -4269,10 +3598,7 @@
       <c r="C214">
         <v>9.42</v>
       </c>
-      <c r="F214">
-        <v>9.42</v>
-      </c>
-      <c r="H214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>noble</t>
         </is>
@@ -4287,10 +3613,7 @@
       <c r="C215">
         <v>9.42</v>
       </c>
-      <c r="F215">
-        <v>9.42</v>
-      </c>
-      <c r="H215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>move on</t>
         </is>
@@ -4305,10 +3628,7 @@
       <c r="C216">
         <v>9.43</v>
       </c>
-      <c r="F216">
-        <v>9.43</v>
-      </c>
-      <c r="H216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>fleet</t>
         </is>
@@ -4323,10 +3643,7 @@
       <c r="C217">
         <v>9.43</v>
       </c>
-      <c r="F217">
-        <v>9.43</v>
-      </c>
-      <c r="H217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>clarity</t>
         </is>
@@ -4341,10 +3658,7 @@
       <c r="C218">
         <v>9.43</v>
       </c>
-      <c r="F218">
-        <v>9.43</v>
-      </c>
-      <c r="H218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>junk</t>
         </is>
@@ -4359,10 +3673,7 @@
       <c r="C219">
         <v>9.43</v>
       </c>
-      <c r="F219">
-        <v>9.43</v>
-      </c>
-      <c r="H219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>spontaneous</t>
         </is>
@@ -4377,10 +3688,7 @@
       <c r="C220">
         <v>9.44</v>
       </c>
-      <c r="F220">
-        <v>9.44</v>
-      </c>
-      <c r="H220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>drilling rig</t>
         </is>
@@ -4395,10 +3703,7 @@
       <c r="C221">
         <v>9.44</v>
       </c>
-      <c r="F221">
-        <v>9.44</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>unity</t>
         </is>
@@ -4413,10 +3718,7 @@
       <c r="C222">
         <v>9.44</v>
       </c>
-      <c r="F222">
-        <v>9.44</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>deposit</t>
         </is>
@@ -4431,10 +3733,7 @@
       <c r="C223">
         <v>9.44</v>
       </c>
-      <c r="F223">
-        <v>9.44</v>
-      </c>
-      <c r="H223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>republic</t>
         </is>
@@ -4449,10 +3748,7 @@
       <c r="C224">
         <v>9.460000000000001</v>
       </c>
-      <c r="F224">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="H224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>construction</t>
         </is>
@@ -4467,10 +3763,7 @@
       <c r="C225">
         <v>9.460000000000001</v>
       </c>
-      <c r="F225">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="H225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>spouse</t>
         </is>
@@ -4485,10 +3778,7 @@
       <c r="C226">
         <v>9.470000000000001</v>
       </c>
-      <c r="F226">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="H226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>basis</t>
         </is>
@@ -4503,10 +3793,7 @@
       <c r="C227">
         <v>9.470000000000001</v>
       </c>
-      <c r="F227">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>prove oneself</t>
         </is>
@@ -4521,10 +3808,7 @@
       <c r="C228">
         <v>9.470000000000001</v>
       </c>
-      <c r="F228">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>document</t>
         </is>
@@ -4539,10 +3823,7 @@
       <c r="C229">
         <v>9.470000000000001</v>
       </c>
-      <c r="F229">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>industry</t>
         </is>
@@ -4557,10 +3838,7 @@
       <c r="C230">
         <v>9.48</v>
       </c>
-      <c r="F230">
-        <v>9.48</v>
-      </c>
-      <c r="H230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>calm period</t>
         </is>
@@ -4575,10 +3853,7 @@
       <c r="C231">
         <v>9.48</v>
       </c>
-      <c r="F231">
-        <v>9.48</v>
-      </c>
-      <c r="H231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
@@ -4593,10 +3868,7 @@
       <c r="C232">
         <v>9.5</v>
       </c>
-      <c r="F232">
-        <v>9.5</v>
-      </c>
-      <c r="H232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>elegance</t>
         </is>
@@ -4611,10 +3883,7 @@
       <c r="C233">
         <v>9.5</v>
       </c>
-      <c r="F233">
-        <v>9.5</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>finale</t>
         </is>
@@ -4629,10 +3898,7 @@
       <c r="C234">
         <v>9.5</v>
       </c>
-      <c r="F234">
-        <v>9.5</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>progressive</t>
         </is>
@@ -4647,10 +3913,7 @@
       <c r="C235">
         <v>9.5</v>
       </c>
-      <c r="F235">
-        <v>9.5</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>amiableness</t>
         </is>
@@ -4665,10 +3928,7 @@
       <c r="C236">
         <v>9.5</v>
       </c>
-      <c r="F236">
-        <v>9.5</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>haughtiness</t>
         </is>
@@ -4683,10 +3943,7 @@
       <c r="C237">
         <v>9.5</v>
       </c>
-      <c r="F237">
-        <v>9.5</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>minor key</t>
         </is>
@@ -4701,10 +3958,7 @@
       <c r="C238">
         <v>9.5</v>
       </c>
-      <c r="F238">
-        <v>9.5</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>rock star</t>
         </is>
@@ -4719,10 +3973,7 @@
       <c r="C239">
         <v>9.5</v>
       </c>
-      <c r="F239">
-        <v>9.5</v>
-      </c>
-      <c r="H239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>tactic</t>
         </is>
@@ -4737,10 +3988,7 @@
       <c r="C240">
         <v>9.5</v>
       </c>
-      <c r="F240">
-        <v>9.5</v>
-      </c>
-      <c r="H240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>triumph</t>
         </is>
@@ -4755,10 +4003,7 @@
       <c r="C241">
         <v>9.5</v>
       </c>
-      <c r="F241">
-        <v>9.5</v>
-      </c>
-      <c r="H241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>refuse</t>
         </is>
@@ -4773,10 +4018,7 @@
       <c r="C242">
         <v>9.52</v>
       </c>
-      <c r="F242">
-        <v>9.52</v>
-      </c>
-      <c r="H242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>accent</t>
         </is>
@@ -4791,10 +4033,7 @@
       <c r="C243">
         <v>9.52</v>
       </c>
-      <c r="F243">
-        <v>9.52</v>
-      </c>
-      <c r="H243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>elastic</t>
         </is>
@@ -4809,10 +4048,7 @@
       <c r="C244">
         <v>9.52</v>
       </c>
-      <c r="F244">
-        <v>9.52</v>
-      </c>
-      <c r="H244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>rebel</t>
         </is>
@@ -4827,10 +4063,7 @@
       <c r="C245">
         <v>9.529999999999999</v>
       </c>
-      <c r="F245">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="H245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>bar</t>
         </is>
@@ -4845,10 +4078,7 @@
       <c r="C246">
         <v>9.529999999999999</v>
       </c>
-      <c r="F246">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="H246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>magazine</t>
         </is>
@@ -4863,10 +4093,7 @@
       <c r="C247">
         <v>9.529999999999999</v>
       </c>
-      <c r="F247">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="H247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>ration</t>
         </is>
@@ -4881,10 +4108,7 @@
       <c r="C248">
         <v>9.539999999999999</v>
       </c>
-      <c r="F248">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="H248" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>symphony</t>
         </is>
@@ -4899,10 +4123,7 @@
       <c r="C249">
         <v>9.56</v>
       </c>
-      <c r="F249">
-        <v>9.56</v>
-      </c>
-      <c r="H249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>countenance</t>
         </is>
@@ -4914,19 +4135,13 @@
           <t>architekt</t>
         </is>
       </c>
-      <c r="B250">
-        <v>16.2</v>
-      </c>
       <c r="C250">
         <v>9.56</v>
       </c>
       <c r="D250">
-        <v>5.1</v>
-      </c>
-      <c r="F250">
-        <v>9.56</v>
-      </c>
-      <c r="H250" t="inlineStr">
+        <v>16.2</v>
+      </c>
+      <c r="G250" t="inlineStr">
         <is>
           <t>architect</t>
         </is>
@@ -4941,10 +4156,7 @@
       <c r="C251">
         <v>9.56</v>
       </c>
-      <c r="F251">
-        <v>9.56</v>
-      </c>
-      <c r="H251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>chipmunk</t>
         </is>
@@ -4959,10 +4171,7 @@
       <c r="C252">
         <v>9.56</v>
       </c>
-      <c r="F252">
-        <v>9.56</v>
-      </c>
-      <c r="H252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>final result</t>
         </is>
@@ -4977,10 +4186,7 @@
       <c r="C253">
         <v>9.56</v>
       </c>
-      <c r="F253">
-        <v>9.56</v>
-      </c>
-      <c r="H253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>successor</t>
         </is>
@@ -4995,10 +4201,7 @@
       <c r="C254">
         <v>9.56</v>
       </c>
-      <c r="F254">
-        <v>9.56</v>
-      </c>
-      <c r="H254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>naive</t>
         </is>
@@ -5013,10 +4216,7 @@
       <c r="C255">
         <v>9.56</v>
       </c>
-      <c r="F255">
-        <v>9.56</v>
-      </c>
-      <c r="H255" t="inlineStr">
+      <c r="G255" t="inlineStr">
         <is>
           <t>superstar</t>
         </is>
@@ -5031,10 +4231,7 @@
       <c r="C256">
         <v>9.57</v>
       </c>
-      <c r="F256">
-        <v>9.57</v>
-      </c>
-      <c r="H256" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>publisher</t>
         </is>
@@ -5049,10 +4246,7 @@
       <c r="C257">
         <v>9.57</v>
       </c>
-      <c r="F257">
-        <v>9.57</v>
-      </c>
-      <c r="H257" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>customs</t>
         </is>
@@ -5067,10 +4261,7 @@
       <c r="C258">
         <v>9.58</v>
       </c>
-      <c r="F258">
-        <v>9.58</v>
-      </c>
-      <c r="H258" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>imitation</t>
         </is>
@@ -5085,10 +4276,7 @@
       <c r="C259">
         <v>9.59</v>
       </c>
-      <c r="F259">
-        <v>9.59</v>
-      </c>
-      <c r="H259" t="inlineStr">
+      <c r="G259" t="inlineStr">
         <is>
           <t>revolt</t>
         </is>
@@ -5103,10 +4291,7 @@
       <c r="C260">
         <v>9.59</v>
       </c>
-      <c r="F260">
-        <v>9.59</v>
-      </c>
-      <c r="H260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>exact</t>
         </is>
@@ -5121,10 +4306,7 @@
       <c r="C261">
         <v>9.59</v>
       </c>
-      <c r="F261">
-        <v>9.59</v>
-      </c>
-      <c r="H261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>formula</t>
         </is>
@@ -5139,10 +4321,7 @@
       <c r="C262">
         <v>9.59</v>
       </c>
-      <c r="F262">
-        <v>9.59</v>
-      </c>
-      <c r="H262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>undertone</t>
         </is>
@@ -5157,10 +4336,7 @@
       <c r="C263">
         <v>9.6</v>
       </c>
-      <c r="F263">
-        <v>9.6</v>
-      </c>
-      <c r="H263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>demonstrable</t>
         </is>
@@ -5175,10 +4351,7 @@
       <c r="C264">
         <v>9.6</v>
       </c>
-      <c r="F264">
-        <v>9.6</v>
-      </c>
-      <c r="H264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>poetic</t>
         </is>
@@ -5193,10 +4366,7 @@
       <c r="C265">
         <v>9.6</v>
       </c>
-      <c r="F265">
-        <v>9.6</v>
-      </c>
-      <c r="H265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>saboteur</t>
         </is>
@@ -5211,10 +4381,7 @@
       <c r="C266">
         <v>9.609999999999999</v>
       </c>
-      <c r="F266">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="H266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>emerald</t>
         </is>
@@ -5229,10 +4396,7 @@
       <c r="C267">
         <v>9.619999999999999</v>
       </c>
-      <c r="F267">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="H267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
@@ -5247,10 +4411,7 @@
       <c r="C268">
         <v>9.619999999999999</v>
       </c>
-      <c r="F268">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="H268" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>mission</t>
         </is>
@@ -5265,10 +4426,7 @@
       <c r="C269">
         <v>9.619999999999999</v>
       </c>
-      <c r="F269">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="H269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>regulator</t>
         </is>
@@ -5283,10 +4441,7 @@
       <c r="C270">
         <v>9.630000000000001</v>
       </c>
-      <c r="F270">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="H270" t="inlineStr">
+      <c r="G270" t="inlineStr">
         <is>
           <t>barometer</t>
         </is>
@@ -5301,10 +4456,7 @@
       <c r="C271">
         <v>9.630000000000001</v>
       </c>
-      <c r="F271">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="H271" t="inlineStr">
+      <c r="G271" t="inlineStr">
         <is>
           <t>bassist</t>
         </is>
@@ -5319,10 +4471,7 @@
       <c r="C272">
         <v>9.630000000000001</v>
       </c>
-      <c r="F272">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="H272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>mechanics</t>
         </is>
@@ -5337,10 +4486,7 @@
       <c r="C273">
         <v>9.630000000000001</v>
       </c>
-      <c r="F273">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="H273" t="inlineStr">
+      <c r="G273" t="inlineStr">
         <is>
           <t>optimist</t>
         </is>
@@ -5355,10 +4501,7 @@
       <c r="C274">
         <v>9.630000000000001</v>
       </c>
-      <c r="F274">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="H274" t="inlineStr">
+      <c r="G274" t="inlineStr">
         <is>
           <t>sentimental</t>
         </is>
@@ -5373,10 +4516,7 @@
       <c r="C275">
         <v>9.640000000000001</v>
       </c>
-      <c r="F275">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="H275" t="inlineStr">
+      <c r="G275" t="inlineStr">
         <is>
           <t>hazy</t>
         </is>
@@ -5391,10 +4531,7 @@
       <c r="C276">
         <v>9.65</v>
       </c>
-      <c r="F276">
-        <v>9.65</v>
-      </c>
-      <c r="H276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>virus</t>
         </is>
@@ -5409,10 +4546,7 @@
       <c r="C277">
         <v>9.67</v>
       </c>
-      <c r="F277">
-        <v>9.67</v>
-      </c>
-      <c r="H277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
@@ -5427,10 +4561,7 @@
       <c r="C278">
         <v>9.67</v>
       </c>
-      <c r="F278">
-        <v>9.67</v>
-      </c>
-      <c r="H278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>literature</t>
         </is>
@@ -5445,10 +4576,7 @@
       <c r="C279">
         <v>9.67</v>
       </c>
-      <c r="F279">
-        <v>9.67</v>
-      </c>
-      <c r="H279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>mineral</t>
         </is>
@@ -5463,10 +4591,7 @@
       <c r="C280">
         <v>9.67</v>
       </c>
-      <c r="F280">
-        <v>9.67</v>
-      </c>
-      <c r="H280" t="inlineStr">
+      <c r="G280" t="inlineStr">
         <is>
           <t>therapy</t>
         </is>
@@ -5481,10 +4606,7 @@
       <c r="C281">
         <v>9.67</v>
       </c>
-      <c r="F281">
-        <v>9.67</v>
-      </c>
-      <c r="H281" t="inlineStr">
+      <c r="G281" t="inlineStr">
         <is>
           <t>tolerance</t>
         </is>
@@ -5499,10 +4621,7 @@
       <c r="C282">
         <v>9.67</v>
       </c>
-      <c r="F282">
-        <v>9.67</v>
-      </c>
-      <c r="H282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>venus</t>
         </is>
@@ -5517,10 +4636,7 @@
       <c r="C283">
         <v>9.67</v>
       </c>
-      <c r="F283">
-        <v>9.67</v>
-      </c>
-      <c r="H283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>audacious</t>
         </is>
@@ -5535,10 +4651,7 @@
       <c r="C284">
         <v>9.68</v>
       </c>
-      <c r="F284">
-        <v>9.68</v>
-      </c>
-      <c r="H284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>mutiny</t>
         </is>
@@ -5553,10 +4666,7 @@
       <c r="C285">
         <v>9.68</v>
       </c>
-      <c r="F285">
-        <v>9.68</v>
-      </c>
-      <c r="H285" t="inlineStr">
+      <c r="G285" t="inlineStr">
         <is>
           <t>defence</t>
         </is>
@@ -5571,10 +4681,7 @@
       <c r="C286">
         <v>9.69</v>
       </c>
-      <c r="F286">
-        <v>9.69</v>
-      </c>
-      <c r="H286" t="inlineStr">
+      <c r="G286" t="inlineStr">
         <is>
           <t>daring</t>
         </is>
@@ -5589,10 +4696,7 @@
       <c r="C287">
         <v>9.69</v>
       </c>
-      <c r="F287">
-        <v>9.69</v>
-      </c>
-      <c r="H287" t="inlineStr">
+      <c r="G287" t="inlineStr">
         <is>
           <t>viper</t>
         </is>
@@ -5607,10 +4711,7 @@
       <c r="C288">
         <v>9.710000000000001</v>
       </c>
-      <c r="F288">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="H288" t="inlineStr">
+      <c r="G288" t="inlineStr">
         <is>
           <t>seer</t>
         </is>
@@ -5625,10 +4726,7 @@
       <c r="C289">
         <v>9.720000000000001</v>
       </c>
-      <c r="F289">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="H289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>carry out</t>
         </is>
@@ -5643,10 +4741,7 @@
       <c r="C290">
         <v>9.73</v>
       </c>
-      <c r="F290">
-        <v>9.73</v>
-      </c>
-      <c r="H290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>dummy</t>
         </is>
@@ -5661,10 +4756,7 @@
       <c r="C291">
         <v>9.73</v>
       </c>
-      <c r="F291">
-        <v>9.73</v>
-      </c>
-      <c r="H291" t="inlineStr">
+      <c r="G291" t="inlineStr">
         <is>
           <t>banner</t>
         </is>
@@ -5679,10 +4771,7 @@
       <c r="C292">
         <v>9.73</v>
       </c>
-      <c r="F292">
-        <v>9.73</v>
-      </c>
-      <c r="H292" t="inlineStr">
+      <c r="G292" t="inlineStr">
         <is>
           <t>master</t>
         </is>
@@ -5697,10 +4786,7 @@
       <c r="C293">
         <v>9.73</v>
       </c>
-      <c r="F293">
-        <v>9.73</v>
-      </c>
-      <c r="H293" t="inlineStr">
+      <c r="G293" t="inlineStr">
         <is>
           <t>refer</t>
         </is>
@@ -5715,10 +4801,7 @@
       <c r="C294">
         <v>9.74</v>
       </c>
-      <c r="F294">
-        <v>9.74</v>
-      </c>
-      <c r="H294" t="inlineStr">
+      <c r="G294" t="inlineStr">
         <is>
           <t>assumption</t>
         </is>
@@ -5733,10 +4816,7 @@
       <c r="C295">
         <v>9.74</v>
       </c>
-      <c r="F295">
-        <v>9.74</v>
-      </c>
-      <c r="H295" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>balsam</t>
         </is>
@@ -5751,10 +4831,7 @@
       <c r="C296">
         <v>9.74</v>
       </c>
-      <c r="F296">
-        <v>9.74</v>
-      </c>
-      <c r="H296" t="inlineStr">
+      <c r="G296" t="inlineStr">
         <is>
           <t>talkative</t>
         </is>
@@ -5769,10 +4846,7 @@
       <c r="C297">
         <v>9.74</v>
       </c>
-      <c r="F297">
-        <v>9.74</v>
-      </c>
-      <c r="H297" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>spontaneity</t>
         </is>
@@ -5787,10 +4861,7 @@
       <c r="C298">
         <v>9.74</v>
       </c>
-      <c r="F298">
-        <v>9.74</v>
-      </c>
-      <c r="H298" t="inlineStr">
+      <c r="G298" t="inlineStr">
         <is>
           <t>pulled muscle</t>
         </is>
@@ -5805,10 +4876,7 @@
       <c r="C299">
         <v>9.76</v>
       </c>
-      <c r="F299">
-        <v>9.76</v>
-      </c>
-      <c r="H299" t="inlineStr">
+      <c r="G299" t="inlineStr">
         <is>
           <t>humiliation</t>
         </is>
@@ -5823,10 +4891,7 @@
       <c r="C300">
         <v>9.76</v>
       </c>
-      <c r="F300">
-        <v>9.76</v>
-      </c>
-      <c r="H300" t="inlineStr">
+      <c r="G300" t="inlineStr">
         <is>
           <t>chemistry</t>
         </is>
@@ -5841,10 +4906,7 @@
       <c r="C301">
         <v>9.76</v>
       </c>
-      <c r="F301">
-        <v>9.76</v>
-      </c>
-      <c r="H301" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>narrow-minded</t>
         </is>
@@ -5859,10 +4921,7 @@
       <c r="C302">
         <v>9.76</v>
       </c>
-      <c r="F302">
-        <v>9.76</v>
-      </c>
-      <c r="H302" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>orchid</t>
         </is>
@@ -5877,10 +4936,7 @@
       <c r="C303">
         <v>9.77</v>
       </c>
-      <c r="F303">
-        <v>9.77</v>
-      </c>
-      <c r="H303" t="inlineStr">
+      <c r="G303" t="inlineStr">
         <is>
           <t>validity</t>
         </is>
@@ -5895,10 +4951,7 @@
       <c r="C304">
         <v>9.77</v>
       </c>
-      <c r="F304">
-        <v>9.77</v>
-      </c>
-      <c r="H304" t="inlineStr">
+      <c r="G304" t="inlineStr">
         <is>
           <t>tradition</t>
         </is>
@@ -5913,10 +4966,7 @@
       <c r="C305">
         <v>9.779999999999999</v>
       </c>
-      <c r="F305">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="H305" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>romantic affair</t>
         </is>
@@ -5931,10 +4981,7 @@
       <c r="C306">
         <v>9.789999999999999</v>
       </c>
-      <c r="F306">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="H306" t="inlineStr">
+      <c r="G306" t="inlineStr">
         <is>
           <t>limit</t>
         </is>
@@ -5949,10 +4996,7 @@
       <c r="C307">
         <v>9.789999999999999</v>
       </c>
-      <c r="F307">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="H307" t="inlineStr">
+      <c r="G307" t="inlineStr">
         <is>
           <t>aimless</t>
         </is>
@@ -5967,10 +5011,7 @@
       <c r="C308">
         <v>9.800000000000001</v>
       </c>
-      <c r="F308">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H308" t="inlineStr">
+      <c r="G308" t="inlineStr">
         <is>
           <t>graceful</t>
         </is>
@@ -5985,10 +5026,7 @@
       <c r="C309">
         <v>9.800000000000001</v>
       </c>
-      <c r="F309">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H309" t="inlineStr">
+      <c r="G309" t="inlineStr">
         <is>
           <t>finding</t>
         </is>
@@ -6003,10 +5041,7 @@
       <c r="C310">
         <v>9.800000000000001</v>
       </c>
-      <c r="F310">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H310" t="inlineStr">
+      <c r="G310" t="inlineStr">
         <is>
           <t>relationship</t>
         </is>
@@ -6021,10 +5056,7 @@
       <c r="C311">
         <v>9.800000000000001</v>
       </c>
-      <c r="F311">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H311" t="inlineStr">
+      <c r="G311" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -6039,10 +5071,7 @@
       <c r="C312">
         <v>9.800000000000001</v>
       </c>
-      <c r="F312">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H312" t="inlineStr">
+      <c r="G312" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
@@ -6057,10 +5086,7 @@
       <c r="C313">
         <v>9.800000000000001</v>
       </c>
-      <c r="F313">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H313" t="inlineStr">
+      <c r="G313" t="inlineStr">
         <is>
           <t>scandal</t>
         </is>
@@ -6075,10 +5101,7 @@
       <c r="C314">
         <v>9.82</v>
       </c>
-      <c r="F314">
-        <v>9.82</v>
-      </c>
-      <c r="H314" t="inlineStr">
+      <c r="G314" t="inlineStr">
         <is>
           <t>reality</t>
         </is>
@@ -6093,10 +5116,7 @@
       <c r="C315">
         <v>9.83</v>
       </c>
-      <c r="F315">
-        <v>9.83</v>
-      </c>
-      <c r="H315" t="inlineStr">
+      <c r="G315" t="inlineStr">
         <is>
           <t>factor</t>
         </is>
@@ -6111,10 +5131,7 @@
       <c r="C316">
         <v>9.84</v>
       </c>
-      <c r="F316">
-        <v>9.84</v>
-      </c>
-      <c r="H316" t="inlineStr">
+      <c r="G316" t="inlineStr">
         <is>
           <t>existence</t>
         </is>
@@ -6129,10 +5146,7 @@
       <c r="C317">
         <v>9.84</v>
       </c>
-      <c r="F317">
-        <v>9.84</v>
-      </c>
-      <c r="H317" t="inlineStr">
+      <c r="G317" t="inlineStr">
         <is>
           <t>payable</t>
         </is>
@@ -6147,10 +5161,7 @@
       <c r="C318">
         <v>9.85</v>
       </c>
-      <c r="F318">
-        <v>9.85</v>
-      </c>
-      <c r="H318" t="inlineStr">
+      <c r="G318" t="inlineStr">
         <is>
           <t>personally</t>
         </is>
@@ -6165,10 +5176,7 @@
       <c r="C319">
         <v>9.85</v>
       </c>
-      <c r="F319">
-        <v>9.85</v>
-      </c>
-      <c r="H319" t="inlineStr">
+      <c r="G319" t="inlineStr">
         <is>
           <t>poet</t>
         </is>
@@ -6183,10 +5191,7 @@
       <c r="C320">
         <v>9.859999999999999</v>
       </c>
-      <c r="F320">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="H320" t="inlineStr">
+      <c r="G320" t="inlineStr">
         <is>
           <t>recycling</t>
         </is>
@@ -6201,10 +5206,7 @@
       <c r="C321">
         <v>9.869999999999999</v>
       </c>
-      <c r="F321">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="H321" t="inlineStr">
+      <c r="G321" t="inlineStr">
         <is>
           <t>pact</t>
         </is>
@@ -6219,10 +5221,7 @@
       <c r="C322">
         <v>9.869999999999999</v>
       </c>
-      <c r="F322">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="H322" t="inlineStr">
+      <c r="G322" t="inlineStr">
         <is>
           <t>vagabond</t>
         </is>
@@ -6237,10 +5236,7 @@
       <c r="C323">
         <v>9.880000000000001</v>
       </c>
-      <c r="F323">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="H323" t="inlineStr">
+      <c r="G323" t="inlineStr">
         <is>
           <t>consultation</t>
         </is>
@@ -6255,10 +5251,7 @@
       <c r="C324">
         <v>9.890000000000001</v>
       </c>
-      <c r="F324">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="H324" t="inlineStr">
+      <c r="G324" t="inlineStr">
         <is>
           <t>unison</t>
         </is>
@@ -6273,10 +5266,7 @@
       <c r="C325">
         <v>9.890000000000001</v>
       </c>
-      <c r="F325">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="H325" t="inlineStr">
+      <c r="G325" t="inlineStr">
         <is>
           <t>card file</t>
         </is>
@@ -6291,10 +5281,7 @@
       <c r="C326">
         <v>9.890000000000001</v>
       </c>
-      <c r="F326">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="H326" t="inlineStr">
+      <c r="G326" t="inlineStr">
         <is>
           <t>battle-cry</t>
         </is>
@@ -6309,10 +5296,7 @@
       <c r="C327">
         <v>9.890000000000001</v>
       </c>
-      <c r="F327">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="H327" t="inlineStr">
+      <c r="G327" t="inlineStr">
         <is>
           <t>passive</t>
         </is>
@@ -6327,10 +5311,7 @@
       <c r="C328">
         <v>9.890000000000001</v>
       </c>
-      <c r="F328">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="H328" t="inlineStr">
+      <c r="G328" t="inlineStr">
         <is>
           <t>instep</t>
         </is>
@@ -6345,10 +5326,7 @@
       <c r="C329">
         <v>9.91</v>
       </c>
-      <c r="F329">
-        <v>9.91</v>
-      </c>
-      <c r="H329" t="inlineStr">
+      <c r="G329" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
@@ -6363,10 +5341,7 @@
       <c r="C330">
         <v>9.91</v>
       </c>
-      <c r="F330">
-        <v>9.91</v>
-      </c>
-      <c r="H330" t="inlineStr">
+      <c r="G330" t="inlineStr">
         <is>
           <t>self-defence</t>
         </is>
@@ -6381,10 +5356,7 @@
       <c r="C331">
         <v>9.92</v>
       </c>
-      <c r="F331">
-        <v>9.92</v>
-      </c>
-      <c r="H331" t="inlineStr">
+      <c r="G331" t="inlineStr">
         <is>
           <t>decorator</t>
         </is>
@@ -6399,10 +5371,7 @@
       <c r="C332">
         <v>9.92</v>
       </c>
-      <c r="F332">
-        <v>9.92</v>
-      </c>
-      <c r="H332" t="inlineStr">
+      <c r="G332" t="inlineStr">
         <is>
           <t>radius</t>
         </is>
@@ -6417,10 +5386,7 @@
       <c r="C333">
         <v>9.93</v>
       </c>
-      <c r="F333">
-        <v>9.93</v>
-      </c>
-      <c r="H333" t="inlineStr">
+      <c r="G333" t="inlineStr">
         <is>
           <t>judiciary</t>
         </is>
@@ -6435,10 +5401,7 @@
       <c r="C334">
         <v>9.93</v>
       </c>
-      <c r="F334">
-        <v>9.93</v>
-      </c>
-      <c r="H334" t="inlineStr">
+      <c r="G334" t="inlineStr">
         <is>
           <t>solo</t>
         </is>
@@ -6453,10 +5416,7 @@
       <c r="C335">
         <v>9.94</v>
       </c>
-      <c r="F335">
-        <v>9.94</v>
-      </c>
-      <c r="H335" t="inlineStr">
+      <c r="G335" t="inlineStr">
         <is>
           <t>authorisation</t>
         </is>
@@ -6471,10 +5431,7 @@
       <c r="C336">
         <v>9.94</v>
       </c>
-      <c r="F336">
-        <v>9.94</v>
-      </c>
-      <c r="H336" t="inlineStr">
+      <c r="G336" t="inlineStr">
         <is>
           <t>proceeds</t>
         </is>
@@ -6489,10 +5446,7 @@
       <c r="C337">
         <v>9.94</v>
       </c>
-      <c r="F337">
-        <v>9.94</v>
-      </c>
-      <c r="H337" t="inlineStr">
+      <c r="G337" t="inlineStr">
         <is>
           <t>refugee</t>
         </is>
@@ -6507,10 +5461,7 @@
       <c r="C338">
         <v>9.94</v>
       </c>
-      <c r="F338">
-        <v>9.94</v>
-      </c>
-      <c r="H338" t="inlineStr">
+      <c r="G338" t="inlineStr">
         <is>
           <t>format</t>
         </is>
@@ -6525,10 +5476,7 @@
       <c r="C339">
         <v>9.94</v>
       </c>
-      <c r="F339">
-        <v>9.94</v>
-      </c>
-      <c r="H339" t="inlineStr">
+      <c r="G339" t="inlineStr">
         <is>
           <t>scruple</t>
         </is>
@@ -6543,10 +5491,7 @@
       <c r="C340">
         <v>9.949999999999999</v>
       </c>
-      <c r="F340">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="H340" t="inlineStr">
+      <c r="G340" t="inlineStr">
         <is>
           <t>jasmine</t>
         </is>
@@ -6561,10 +5506,7 @@
       <c r="C341">
         <v>9.949999999999999</v>
       </c>
-      <c r="F341">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="H341" t="inlineStr">
+      <c r="G341" t="inlineStr">
         <is>
           <t>thermostat</t>
         </is>
@@ -6579,10 +5521,7 @@
       <c r="C342">
         <v>9.960000000000001</v>
       </c>
-      <c r="F342">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="H342" t="inlineStr">
+      <c r="G342" t="inlineStr">
         <is>
           <t>port of call</t>
         </is>
@@ -6597,10 +5536,7 @@
       <c r="C343">
         <v>9.960000000000001</v>
       </c>
-      <c r="F343">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="H343" t="inlineStr">
+      <c r="G343" t="inlineStr">
         <is>
           <t>eke out</t>
         </is>
@@ -6615,10 +5551,7 @@
       <c r="C344">
         <v>9.960000000000001</v>
       </c>
-      <c r="F344">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="H344" t="inlineStr">
+      <c r="G344" t="inlineStr">
         <is>
           <t>quartz</t>
         </is>
@@ -6633,10 +5566,7 @@
       <c r="C345">
         <v>9.960000000000001</v>
       </c>
-      <c r="F345">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="H345" t="inlineStr">
+      <c r="G345" t="inlineStr">
         <is>
           <t>teamwork</t>
         </is>
